--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 00:46:06</t>
+          <t>Última actualización: 01:22:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 2</t>
+          <t>Total filas: 3</t>
         </is>
       </c>
     </row>
@@ -517,6 +517,26 @@
       </c>
       <c r="D7" t="n">
         <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -525,88 +545,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>LÍNEA 141 - LP1912-215 - 10/01/2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Última actualización: 00:46:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Total filas: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Hora_Scrap</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Hora_Llegada</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Linea</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>00:46:06</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>01:12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>215_ALUAR</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -623,14 +561,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LÍNEA 141 - 6203-6173 - 10/01/2026</t>
+          <t>LÍNEA 141 - LP1912-215 - 10/01/2026</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 00:46:06</t>
+          <t>Última actualización: 01:22:42</t>
         </is>
       </c>
     </row>
@@ -686,6 +624,108 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LÍNEA 141 - 6203-6173 - 10/01/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Última actualización: 01:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Total filas: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Hora_Scrap</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Hora_Llegada</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Linea</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00:46:06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01:12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>00:46:06</t>
         </is>
       </c>
@@ -701,6 +741,26 @@
       </c>
       <c r="D7" t="n">
         <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:22:42</t>
+          <t>Última actualización: 01:55:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 3</t>
+          <t>Total filas: 5</t>
         </is>
       </c>
     </row>
@@ -502,41 +502,81 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>00:46:06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>01:22:42</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>02:58</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>215_ALUAR</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +608,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:22:42</t>
+          <t>Última actualización: 01:55:38</t>
         </is>
       </c>
     </row>
@@ -652,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,14 +710,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:22:42</t>
+          <t>Última actualización: 01:55:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 3</t>
+          <t>Total filas: 5</t>
         </is>
       </c>
     </row>
@@ -726,41 +766,81 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>00:46:06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>01:22:42</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>02:58</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>215_ALUAR</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:55:38</t>
+          <t>Última actualización: 02:29:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 5</t>
+          <t>Total filas: 6</t>
         </is>
       </c>
     </row>
@@ -542,40 +542,60 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>01:55:38</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>03:48</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>14_ABASTO</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>113</v>
       </c>
     </row>
@@ -608,7 +628,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:55:38</t>
+          <t>Última actualización: 02:29:13</t>
         </is>
       </c>
     </row>
@@ -692,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,14 +730,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 01:55:38</t>
+          <t>Última actualización: 02:29:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 5</t>
+          <t>Total filas: 6</t>
         </is>
       </c>
     </row>
@@ -806,40 +826,60 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>01:55:38</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>03:48</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>14_ABASTO</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>113</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:29:13</t>
+          <t>Última actualización: 02:47:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 6</t>
+          <t>Total filas: 7</t>
         </is>
       </c>
     </row>
@@ -597,6 +597,26 @@
       </c>
       <c r="D11" t="n">
         <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,14 +648,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:29:13</t>
+          <t>Última actualización: 02:47:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 2</t>
+          <t>Total filas: 3</t>
         </is>
       </c>
     </row>
@@ -699,6 +719,26 @@
       </c>
       <c r="D7" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,14 +770,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:29:13</t>
+          <t>Última actualización: 02:47:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 6</t>
+          <t>Total filas: 7</t>
         </is>
       </c>
     </row>
@@ -881,6 +921,26 @@
       </c>
       <c r="D11" t="n">
         <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:47:42</t>
+          <t>Última actualización: 03:00:53</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 7</t>
+          <t>Total filas: 8</t>
         </is>
       </c>
     </row>
@@ -602,20 +602,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>118</v>
       </c>
     </row>
@@ -648,7 +668,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:47:42</t>
+          <t>Última actualización: 03:00:53</t>
         </is>
       </c>
     </row>
@@ -752,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,14 +790,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 02:47:42</t>
+          <t>Última actualización: 03:00:53</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 7</t>
+          <t>Total filas: 8</t>
         </is>
       </c>
     </row>
@@ -926,20 +946,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:00:53</t>
+          <t>Última actualización: 03:46:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 8</t>
+          <t>Total filas: 12</t>
         </is>
       </c>
     </row>
@@ -502,140 +502,220 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05:22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>118</v>
       </c>
     </row>
@@ -650,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,14 +748,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:00:53</t>
+          <t>Última actualización: 03:46:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 3</t>
+          <t>Total filas: 5</t>
         </is>
       </c>
     </row>
@@ -724,40 +804,80 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>118</v>
       </c>
     </row>
@@ -772,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,14 +910,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:00:53</t>
+          <t>Última actualización: 03:46:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 8</t>
+          <t>Total filas: 12</t>
         </is>
       </c>
     </row>
@@ -846,140 +966,220 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05:22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:46:12</t>
+          <t>Última actualización: 04:01:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 12</t>
+          <t>Total filas: 18</t>
         </is>
       </c>
     </row>
@@ -482,141 +482,141 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -627,95 +627,215 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>118</v>
       </c>
     </row>
@@ -730,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,14 +868,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:46:12</t>
+          <t>Última actualización: 04:01:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 5</t>
+          <t>Total filas: 6</t>
         </is>
       </c>
     </row>
@@ -804,80 +924,100 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>118</v>
       </c>
     </row>
@@ -892,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,14 +1050,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 03:46:12</t>
+          <t>Última actualización: 04:01:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 12</t>
+          <t>Total filas: 18</t>
         </is>
       </c>
     </row>
@@ -946,141 +1086,141 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1091,95 +1231,215 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>01:22:42</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>215_ALUAR</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:01:06</t>
+          <t>Última actualización: 04:30:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 18</t>
+          <t>Total filas: 24</t>
         </is>
       </c>
     </row>
@@ -622,52 +622,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -676,67 +676,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -747,95 +747,215 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>118</v>
       </c>
     </row>
@@ -850,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,14 +988,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:01:06</t>
+          <t>Última actualización: 04:30:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 6</t>
+          <t>Total filas: 7</t>
         </is>
       </c>
     </row>
@@ -984,40 +1104,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1032,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,14 +1190,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:01:06</t>
+          <t>Última actualización: 04:30:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 18</t>
+          <t>Total filas: 24</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1366,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1280,67 +1420,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -1351,95 +1491,215 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:30:03</t>
+          <t>Última actualización: 04:44:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 24</t>
+          <t>Total filas: 38</t>
         </is>
       </c>
     </row>
@@ -502,81 +502,81 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -587,47 +587,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -647,176 +647,176 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -827,76 +827,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -907,55 +907,335 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05:22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>06:26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17X38_ROMERO</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16_SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D43" t="n">
         <v>118</v>
       </c>
     </row>
@@ -970,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,14 +1268,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:30:03</t>
+          <t>Última actualización: 04:44:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 7</t>
+          <t>Total filas: 9</t>
         </is>
       </c>
     </row>
@@ -1024,92 +1304,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1118,46 +1398,86 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1172,7 +1492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,14 +1510,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:30:03</t>
+          <t>Última actualización: 04:44:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 24</t>
+          <t>Total filas: 38</t>
         </is>
       </c>
     </row>
@@ -1246,81 +1566,81 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1331,47 +1651,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1380,7 +1700,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1391,176 +1711,176 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1571,76 +1891,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -1651,55 +1971,335 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05:22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>06:23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>06:26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17X38_ROMERO</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16_SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D43" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:44:55</t>
+          <t>Última actualización: 04:58:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 38</t>
+          <t>Total filas: 44</t>
         </is>
       </c>
     </row>
@@ -502,61 +502,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -567,56 +567,56 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -627,56 +627,56 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -702,52 +702,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -756,27 +756,27 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -787,16 +787,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -807,72 +807,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -882,12 +882,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -896,118 +896,118 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1016,87 +1016,87 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1107,135 +1107,255 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1250,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,14 +1388,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:44:55</t>
+          <t>Última actualización: 04:58:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 9</t>
+          <t>Total filas: 10</t>
         </is>
       </c>
     </row>
@@ -1464,20 +1584,40 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1492,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1510,14 +1650,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:44:55</t>
+          <t>Última actualización: 04:58:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 38</t>
+          <t>Total filas: 44</t>
         </is>
       </c>
     </row>
@@ -1566,61 +1706,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1631,56 +1771,56 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -1691,56 +1831,56 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1766,52 +1906,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1820,27 +1960,27 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1851,16 +1991,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -1871,72 +2011,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1946,12 +2086,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1960,118 +2100,118 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2080,87 +2220,87 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -2171,135 +2311,255 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:58:02</t>
+          <t>Última actualización: 05:37:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 44</t>
+          <t>Total filas: 51</t>
         </is>
       </c>
     </row>
@@ -822,132 +822,132 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -956,227 +956,227 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1187,175 +1187,315 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D56" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1370,7 +1510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,14 +1528,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:58:02</t>
+          <t>Última actualización: 05:37:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 10</t>
+          <t>Total filas: 13</t>
         </is>
       </c>
     </row>
@@ -1524,72 +1664,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1598,26 +1738,86 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1632,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,14 +1850,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 04:58:02</t>
+          <t>Última actualización: 05:37:13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 44</t>
+          <t>Total filas: 51</t>
         </is>
       </c>
     </row>
@@ -2026,132 +2226,132 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2160,227 +2360,227 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -2391,175 +2591,315 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D56" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:37:13</t>
+          <t>Última actualización: 05:55:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 51</t>
+          <t>Total filas: 62</t>
         </is>
       </c>
     </row>
@@ -642,41 +642,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -687,267 +687,267 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -956,187 +956,187 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -1147,96 +1147,96 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
@@ -1247,255 +1247,475 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D67" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1510,7 +1730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,14 +1748,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:37:13</t>
+          <t>Última actualización: 05:55:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 13</t>
+          <t>Total filas: 15</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1844,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1638,18 +1858,18 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1658,18 +1878,18 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1678,87 +1898,87 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -1769,55 +1989,95 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1832,7 +2092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1850,14 +2110,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:37:13</t>
+          <t>Última actualización: 05:55:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 51</t>
+          <t>Total filas: 62</t>
         </is>
       </c>
     </row>
@@ -2046,41 +2306,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -2091,267 +2351,267 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2360,187 +2620,187 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -2551,96 +2811,96 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
@@ -2651,255 +2911,475 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D67" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:55:52</t>
+          <t>Última actualización: 06:28:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 62</t>
+          <t>Total filas: 76</t>
         </is>
       </c>
     </row>
@@ -482,37 +482,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04:02</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:59</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -522,101 +522,101 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -627,87 +627,87 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +727,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -747,76 +747,76 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -827,76 +827,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -907,167 +907,167 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1076,198 +1076,198 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1276,27 +1276,27 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -1307,116 +1307,116 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -1427,16 +1427,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
@@ -1447,275 +1447,555 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D80" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1730,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,14 +2028,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:55:52</t>
+          <t>Última actualización: 06:28:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 15</t>
+          <t>Total filas: 18</t>
         </is>
       </c>
     </row>
@@ -1884,112 +2164,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1998,27 +2278,27 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -2029,55 +2309,115 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2092,7 +2432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,14 +2450,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 05:55:52</t>
+          <t>Última actualización: 06:28:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 62</t>
+          <t>Total filas: 76</t>
         </is>
       </c>
     </row>
@@ -2146,37 +2486,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04:02</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:59</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2186,101 +2526,101 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2291,87 +2631,87 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2380,7 +2720,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2391,16 +2731,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -2411,76 +2751,76 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -2491,76 +2831,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -2571,167 +2911,167 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2740,198 +3080,198 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2940,27 +3280,27 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -2971,116 +3311,116 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -3091,16 +3431,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
@@ -3111,275 +3451,555 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>03:46:12</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>05:35</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>215B_EL PATO</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07:27</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04:01:06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>05:52</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D80" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>118</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:28:32</t>
+          <t>Última actualización: 06:45:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 76</t>
+          <t>Total filas: 82</t>
         </is>
       </c>
     </row>
@@ -642,81 +642,81 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -727,27 +727,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -756,47 +756,47 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -822,57 +822,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -882,37 +882,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -922,37 +922,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -962,32 +962,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -996,87 +996,87 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -1107,36 +1107,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1147,32 +1147,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1182,41 +1182,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -1242,12 +1242,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1256,47 +1256,47 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
@@ -1322,197 +1322,197 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1542,212 +1542,212 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1756,138 +1756,138 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1896,107 +1896,227 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>06:28:32</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>08:26</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>15X38_ABASTO</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D85" t="n">
         <v>118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10_OLMOS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2028,14 +2148,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:28:32</t>
+          <t>Última actualización: 06:45:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 18</t>
+          <t>Total filas: 20</t>
         </is>
       </c>
     </row>
@@ -2104,52 +2224,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2158,266 +2278,306 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2432,7 +2592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2450,14 +2610,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:28:32</t>
+          <t>Última actualización: 06:45:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 76</t>
+          <t>Total filas: 82</t>
         </is>
       </c>
     </row>
@@ -2646,81 +2806,81 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2731,27 +2891,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2760,47 +2920,47 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -2826,57 +2986,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2886,37 +3046,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2926,37 +3086,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2966,32 +3126,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3000,87 +3160,87 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -3091,16 +3251,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -3111,36 +3271,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -3151,32 +3311,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3186,41 +3346,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -3246,12 +3406,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3260,47 +3420,47 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
@@ -3326,197 +3486,197 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3546,212 +3706,212 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3760,138 +3920,138 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3900,107 +4060,227 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>06:28:32</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>08:26</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>15X38_ABASTO</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D85" t="n">
         <v>118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10_OLMOS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:45:29</t>
+          <t>Última actualización: 06:58:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 82</t>
+          <t>Total filas: 90</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -636,287 +636,287 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -927,196 +927,196 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -1127,376 +1127,376 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
@@ -1507,76 +1507,76 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
@@ -1587,116 +1587,116 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -1707,336 +1707,336 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
@@ -2047,75 +2047,235 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D95" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2130,7 +2290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,14 +2308,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:45:29</t>
+          <t>Última actualización: 06:58:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 20</t>
+          <t>Total filas: 22</t>
         </is>
       </c>
     </row>
@@ -2504,12 +2664,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2518,66 +2678,106 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2592,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2610,14 +2810,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:45:29</t>
+          <t>Última actualización: 06:58:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 82</t>
+          <t>Total filas: 90</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2986,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2800,287 +3000,287 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -3091,196 +3291,196 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -3291,376 +3491,376 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
@@ -3671,76 +3871,76 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
@@ -3751,116 +3951,116 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -3871,336 +4071,336 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
@@ -4211,75 +4411,235 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D95" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:58:06</t>
+          <t>Última actualización: 07:31:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 90</t>
+          <t>Total filas: 103</t>
         </is>
       </c>
     </row>
@@ -502,21 +502,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:02</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -542,101 +542,101 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -647,107 +647,107 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -756,87 +756,87 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -847,76 +847,76 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -927,367 +927,367 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1296,58 +1296,58 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1356,247 +1356,247 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
@@ -1627,47 +1627,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1676,298 +1676,298 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1976,38 +1976,38 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2016,266 +2016,526 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D108" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2290,7 +2550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,14 +2568,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:58:06</t>
+          <t>Última actualización: 07:31:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 22</t>
+          <t>Total filas: 27</t>
         </is>
       </c>
     </row>
@@ -2364,121 +2624,121 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -2489,27 +2749,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2518,58 +2778,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2578,27 +2838,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -2609,87 +2869,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2698,86 +2958,186 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2792,7 +3152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,14 +3170,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 06:58:06</t>
+          <t>Última actualización: 07:31:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 90</t>
+          <t>Total filas: 103</t>
         </is>
       </c>
     </row>
@@ -2866,21 +3226,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04:02</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2906,101 +3266,101 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -3011,107 +3371,107 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3120,87 +3480,87 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -3211,76 +3571,76 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -3291,367 +3651,367 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3660,58 +4020,58 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3720,247 +4080,247 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
@@ -3971,16 +4331,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
@@ -3991,47 +4351,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4040,298 +4400,298 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4340,38 +4700,38 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4380,266 +4740,526 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D108" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:31:05</t>
+          <t>Última actualización: 07:51:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 103</t>
+          <t>Total filas: 110</t>
         </is>
       </c>
     </row>
@@ -682,32 +682,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -716,83 +716,83 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -802,81 +802,81 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -902,21 +902,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -927,27 +927,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -956,47 +956,47 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -1022,21 +1022,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1047,27 +1047,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -1102,21 +1102,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1142,21 +1142,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -1187,136 +1187,136 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -1327,136 +1327,136 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
@@ -1467,56 +1467,56 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -1527,107 +1527,107 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1636,778 +1636,778 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2416,126 +2416,266 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D115" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2550,7 +2690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2568,14 +2708,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:31:05</t>
+          <t>Última actualización: 07:51:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 27</t>
+          <t>Total filas: 29</t>
         </is>
       </c>
     </row>
@@ -2664,12 +2804,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2678,47 +2818,47 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2744,32 +2884,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2778,178 +2918,178 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2958,27 +3098,27 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -2989,155 +3129,195 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>118</v>
       </c>
     </row>
@@ -3152,7 +3332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3170,14 +3350,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:31:05</t>
+          <t>Última actualización: 07:51:22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 103</t>
+          <t>Total filas: 110</t>
         </is>
       </c>
     </row>
@@ -3406,32 +3586,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3440,83 +3620,83 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3526,81 +3706,81 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -3626,21 +3806,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -3651,27 +3831,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3680,47 +3860,47 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -3746,21 +3926,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -3771,27 +3951,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3800,7 +3980,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -3826,21 +4006,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -3866,21 +4046,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -3911,136 +4091,136 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -4051,136 +4231,136 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
@@ -4191,56 +4371,56 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -4251,107 +4431,107 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4360,778 +4540,778 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5140,126 +5320,266 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D115" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:51:22</t>
+          <t>Última actualización: 08:22:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 110</t>
+          <t>Total filas: 123</t>
         </is>
       </c>
     </row>
@@ -602,112 +602,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -716,167 +716,167 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -887,367 +887,367 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1256,98 +1256,98 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1356,87 +1356,87 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
@@ -1447,296 +1447,296 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
@@ -1747,176 +1747,176 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
@@ -1927,567 +1927,567 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2496,167 +2496,167 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -2667,15 +2667,275 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D128" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2690,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,14 +2968,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:51:22</t>
+          <t>Última actualización: 08:22:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 29</t>
+          <t>Total filas: 32</t>
         </is>
       </c>
     </row>
@@ -2784,52 +3044,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2838,47 +3098,47 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2894,7 +3154,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2904,32 +3164,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2938,198 +3198,198 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3138,27 +3398,27 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -3169,67 +3429,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3238,86 +3498,146 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>118</v>
       </c>
     </row>
@@ -3332,7 +3652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3350,14 +3670,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 07:51:22</t>
+          <t>Última actualización: 08:22:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 110</t>
+          <t>Total filas: 123</t>
         </is>
       </c>
     </row>
@@ -3506,112 +3826,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>06:32</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3620,167 +3940,167 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -3791,367 +4111,367 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4160,98 +4480,98 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4260,87 +4580,87 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
@@ -4351,296 +4671,296 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
@@ -4651,176 +4971,176 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
@@ -4831,567 +5151,567 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5400,167 +5720,167 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -5571,15 +5891,275 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D128" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:22:12</t>
+          <t>Última actualización: 08:41:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 123</t>
+          <t>Total filas: 132</t>
         </is>
       </c>
     </row>
@@ -982,132 +982,132 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1116,67 +1116,67 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1216,87 +1216,87 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -1322,281 +1322,281 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -1607,192 +1607,192 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1802,92 +1802,92 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1896,243 +1896,243 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2162,352 +2162,352 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
@@ -2527,127 +2527,127 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2656,27 +2656,27 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
@@ -2687,207 +2687,207 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2896,46 +2896,226 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D137" t="n">
         <v>119</v>
       </c>
     </row>
@@ -2950,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2968,14 +3148,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:22:12</t>
+          <t>Última actualización: 08:41:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 32</t>
+          <t>Total filas: 34</t>
         </is>
       </c>
     </row>
@@ -3424,121 +3604,121 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -3549,95 +3729,135 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>118</v>
       </c>
     </row>
@@ -3652,7 +3872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3670,14 +3890,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:22:12</t>
+          <t>Última actualización: 08:41:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 123</t>
+          <t>Total filas: 132</t>
         </is>
       </c>
     </row>
@@ -4206,132 +4426,132 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4340,67 +4560,67 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -4411,27 +4631,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4440,87 +4660,87 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -4546,281 +4766,281 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -4831,192 +5051,192 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -5026,92 +5246,92 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5120,243 +5340,243 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -5386,352 +5606,352 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5740,7 +5960,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
@@ -5751,127 +5971,127 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5880,27 +6100,27 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
@@ -5911,207 +6131,207 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6120,46 +6340,226 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D137" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:41:14</t>
+          <t>Última actualización: 08:57:53</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 132</t>
+          <t>Total filas: 143</t>
         </is>
       </c>
     </row>
@@ -662,192 +662,192 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -856,67 +856,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -927,487 +927,487 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1416,218 +1416,218 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -1647,536 +1647,536 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -2187,567 +2187,567 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2756,178 +2756,178 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2936,27 +2936,27 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
@@ -2967,155 +2967,375 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D148" t="n">
         <v>119</v>
       </c>
     </row>
@@ -3130,7 +3350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,14 +3368,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:41:14</t>
+          <t>Última actualización: 08:57:53</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 34</t>
+          <t>Total filas: 39</t>
         </is>
       </c>
     </row>
@@ -3264,32 +3484,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3298,47 +3518,47 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -3364,32 +3584,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3398,58 +3618,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3458,187 +3678,187 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -3649,47 +3869,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3698,7 +3918,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -3709,27 +3929,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3738,126 +3958,226 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>118</v>
       </c>
     </row>
@@ -3872,7 +4192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,14 +4210,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:41:14</t>
+          <t>Última actualización: 08:57:53</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 132</t>
+          <t>Total filas: 143</t>
         </is>
       </c>
     </row>
@@ -4106,192 +4426,192 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4300,67 +4620,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4371,487 +4691,487 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4860,218 +5180,218 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5080,7 +5400,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -5091,536 +5411,536 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
@@ -5631,567 +5951,567 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6200,178 +6520,178 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6380,27 +6700,27 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
@@ -6411,155 +6731,375 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D148" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:57:53</t>
+          <t>Última actualización: 09:57:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 143</t>
+          <t>Total filas: 164</t>
         </is>
       </c>
     </row>
@@ -642,292 +642,292 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -936,78 +936,78 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1016,238 +1016,238 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1256,318 +1256,318 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1576,238 +1576,238 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1816,478 +1816,478 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2296,558 +2296,558 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2856,38 +2856,38 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2896,38 +2896,38 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2936,18 +2936,18 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2956,107 +2956,107 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
@@ -3067,56 +3067,56 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
@@ -3127,47 +3127,47 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3176,166 +3176,586 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>07:51:22</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10_OLMOS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D169" t="n">
         <v>119</v>
       </c>
     </row>
@@ -3350,7 +3770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,14 +3788,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:57:53</t>
+          <t>Última actualización: 09:57:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 39</t>
+          <t>Total filas: 43</t>
         </is>
       </c>
     </row>
@@ -3744,141 +4164,141 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -3904,21 +4324,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -3944,152 +4364,152 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4098,86 +4518,166 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>118</v>
       </c>
     </row>
@@ -4192,7 +4692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4210,14 +4710,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 08:57:53</t>
+          <t>Última actualización: 09:57:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 143</t>
+          <t>Total filas: 164</t>
         </is>
       </c>
     </row>
@@ -4406,292 +4906,292 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4700,78 +5200,78 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4780,238 +5280,238 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5020,318 +5520,318 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5340,238 +5840,238 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5580,478 +6080,478 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6060,558 +6560,558 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6620,38 +7120,38 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6660,38 +7160,38 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6700,18 +7200,18 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6720,107 +7220,107 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
@@ -6831,56 +7331,56 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
@@ -6891,47 +7391,47 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6940,166 +7440,586 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>03:00:53</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>07:51:22</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>01:55:38</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>03:48</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10_OLMOS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D169" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 09:57:03</t>
+          <t>Última actualización: 10:35:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 164</t>
+          <t>Total filas: 182</t>
         </is>
       </c>
     </row>
@@ -662,32 +662,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -696,38 +696,38 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -736,78 +736,78 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -816,118 +816,118 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -936,218 +936,218 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1156,38 +1156,38 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1196,138 +1196,138 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1336,78 +1336,78 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1416,267 +1416,267 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -1687,56 +1687,56 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -1747,87 +1747,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1836,307 +1836,307 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89">
@@ -2147,256 +2147,256 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102">
@@ -2407,127 +2407,127 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2536,118 +2536,118 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2656,607 +2656,607 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145">
@@ -3267,495 +3267,855 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>12:28</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D187" t="n">
         <v>119</v>
       </c>
     </row>
@@ -3770,7 +4130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3788,14 +4148,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 09:57:03</t>
+          <t>Última actualización: 10:35:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 43</t>
+          <t>Total filas: 48</t>
         </is>
       </c>
     </row>
@@ -3964,41 +4324,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -4014,7 +4374,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4024,32 +4384,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4058,78 +4418,78 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4138,118 +4498,118 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4258,7 +4618,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -4269,67 +4629,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4338,58 +4698,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4398,67 +4758,67 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -4469,215 +4829,315 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D53" t="n">
         <v>118</v>
       </c>
     </row>
@@ -4692,7 +5152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,14 +5170,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 09:57:03</t>
+          <t>Última actualización: 10:35:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 164</t>
+          <t>Total filas: 182</t>
         </is>
       </c>
     </row>
@@ -4926,32 +5386,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4960,38 +5420,38 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:16</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5000,78 +5460,78 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>09:16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5080,118 +5540,118 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5200,218 +5660,218 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5420,38 +5880,38 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5460,138 +5920,138 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5600,78 +6060,78 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5680,267 +6140,267 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -5951,56 +6411,56 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -6011,87 +6471,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6100,307 +6560,307 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89">
@@ -6411,256 +6871,256 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102">
@@ -6671,127 +7131,127 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6800,118 +7260,118 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6920,607 +7380,607 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145">
@@ -7531,495 +7991,855 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>12:28</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04:44:55</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>225_C ROCA-H SUR</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D187" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:35:49</t>
+          <t>Última actualización: 10:51:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 182</t>
+          <t>Total filas: 190</t>
         </is>
       </c>
     </row>
@@ -682,32 +682,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -747,16 +747,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -787,96 +787,96 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -942,21 +942,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1002,37 +1002,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1042,52 +1042,52 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1096,18 +1096,18 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1122,192 +1122,192 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1316,507 +1316,507 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1827,96 +1827,96 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
@@ -1942,441 +1942,441 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
@@ -2387,16 +2387,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
@@ -2407,252 +2407,252 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2662,12 +2662,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2676,107 +2676,107 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121">
@@ -2802,92 +2802,92 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2896,138 +2896,138 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3036,63 +3036,63 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3102,72 +3102,72 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3176,418 +3176,418 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3596,87 +3596,87 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166">
@@ -3687,27 +3687,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3716,187 +3716,187 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="177">
@@ -3907,215 +3907,375 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>06:54</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D195" t="n">
         <v>119</v>
       </c>
     </row>
@@ -4130,7 +4290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4148,14 +4308,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:35:49</t>
+          <t>Última actualización: 10:51:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 48</t>
+          <t>Total filas: 50</t>
         </is>
       </c>
     </row>
@@ -4744,37 +4904,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -4784,32 +4944,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4824,32 +4984,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4858,38 +5018,38 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4904,32 +5064,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4938,43 +5098,43 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4984,41 +5144,41 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -5044,12 +5204,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5058,86 +5218,126 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D55" t="n">
         <v>118</v>
       </c>
     </row>
@@ -5152,7 +5352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5170,14 +5370,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:35:49</t>
+          <t>Última actualización: 10:51:31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 182</t>
+          <t>Total filas: 190</t>
         </is>
       </c>
     </row>
@@ -5406,32 +5606,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5440,27 +5640,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -5471,16 +5671,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -5511,96 +5711,96 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -5666,21 +5866,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -5726,37 +5926,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5766,52 +5966,52 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5820,18 +6020,18 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5846,192 +6046,192 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6040,507 +6240,507 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -6551,96 +6751,96 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
@@ -6666,441 +6866,441 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
@@ -7111,16 +7311,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
@@ -7131,252 +7331,252 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -7386,12 +7586,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7400,107 +7600,107 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121">
@@ -7526,92 +7726,92 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7620,138 +7820,138 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -7760,63 +7960,63 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -7826,72 +8026,72 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7900,418 +8100,418 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8320,87 +8520,87 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166">
@@ -8411,27 +8611,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8440,187 +8640,187 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="177">
@@ -8631,215 +8831,375 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>06:54</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D195" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:51:31</t>
+          <t>Última actualización: 11:25:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 190</t>
+          <t>Total filas: 202</t>
         </is>
       </c>
     </row>
@@ -802,101 +802,101 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -912,7 +912,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -942,17 +942,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -967,32 +967,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1027,16 +1027,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -1062,52 +1062,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -1142,72 +1142,72 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1216,203 +1216,203 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1422,21 +1422,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -1447,67 +1447,67 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1516,178 +1516,178 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1696,207 +1696,207 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -1907,112 +1907,112 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2022,461 +2022,461 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
@@ -2487,476 +2487,476 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130">
@@ -2967,47 +2967,47 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3016,98 +3016,98 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3116,178 +3116,178 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3296,647 +3296,647 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179">
@@ -3947,47 +3947,47 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3996,18 +3996,18 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4016,38 +4016,38 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4056,167 +4056,167 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="193">
@@ -4227,55 +4227,295 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>11:25:38</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D207" t="n">
         <v>119</v>
       </c>
     </row>
@@ -4290,7 +4530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4308,14 +4548,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:51:31</t>
+          <t>Última actualización: 11:25:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 50</t>
+          <t>Total filas: 54</t>
         </is>
       </c>
     </row>
@@ -4884,61 +5124,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -4964,32 +5204,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5004,41 +5244,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -5049,295 +5289,375 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>06:45:29</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>215C_EL PATO</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>06:58:06</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>215A_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>215C_LA PLATA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D59" t="n">
         <v>118</v>
       </c>
     </row>
@@ -5352,7 +5672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5370,14 +5690,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 10:51:31</t>
+          <t>Última actualización: 11:25:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 190</t>
+          <t>Total filas: 202</t>
         </is>
       </c>
     </row>
@@ -5726,101 +6046,101 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01:12</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>01:12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -5836,7 +6156,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -5866,17 +6186,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -5891,32 +6211,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -5951,16 +6271,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -5986,52 +6306,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6040,7 +6360,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -6066,72 +6386,72 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6140,203 +6460,203 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -6346,21 +6666,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -6371,67 +6691,67 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6440,178 +6760,178 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6620,207 +6940,207 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -6831,112 +7151,112 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>05:51</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -6946,461 +7266,461 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
@@ -7411,476 +7731,476 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>05:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>05:32</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>05:32</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>06:31</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130">
@@ -7891,47 +8211,47 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7940,98 +8260,98 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8040,178 +8360,178 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -8220,647 +8540,647 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>06:51</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>03:48</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179">
@@ -8871,47 +9191,47 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8920,18 +9240,18 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8940,38 +9260,38 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>03:48</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8980,167 +9300,167 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="193">
@@ -9151,55 +9471,295 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>10:35:49</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04:58:02</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>06:54</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14_ABASTO</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>05:37:13</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>07:33</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>11:25:38</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>17_ROMERO</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>16_P MOR-SANTA ANA</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>05:55:51</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>07:51</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>15_ABASTO</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>23_HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>09:57:03</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>225_GOMEZ</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>02:47:42</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>04:45</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>215A_EL PATO</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D207" t="n">
         <v>119</v>
       </c>
     </row>

--- a/data/horarios-141-2026-01-10.xlsx
+++ b/data/horarios-141-2026-01-10.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 12:29:24</t>
+          <t>Última actualización: 12:38:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 239</t>
+          <t>Total filas: 241</t>
         </is>
       </c>
     </row>
@@ -478,6 +478,11 @@
           <t>Minutos</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Parada</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -498,6 +503,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -518,6 +524,7 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,6 +545,7 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -558,6 +566,7 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -578,6 +587,7 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,6 +608,7 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -618,6 +629,7 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -638,6 +650,7 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +671,7 @@
       <c r="D14" t="n">
         <v>3</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +692,7 @@
       <c r="D15" t="n">
         <v>3</v>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -698,6 +713,7 @@
       <c r="D16" t="n">
         <v>4</v>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -718,6 +734,7 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +755,7 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -758,6 +776,7 @@
       <c r="D19" t="n">
         <v>4</v>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -778,6 +797,7 @@
       <c r="D20" t="n">
         <v>7</v>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -798,6 +818,7 @@
       <c r="D21" t="n">
         <v>7</v>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -818,6 +839,7 @@
       <c r="D22" t="n">
         <v>11</v>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -838,6 +860,7 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -858,6 +881,7 @@
       <c r="D24" t="n">
         <v>19</v>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -878,6 +902,7 @@
       <c r="D25" t="n">
         <v>19</v>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -898,6 +923,7 @@
       <c r="D26" t="n">
         <v>20</v>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -918,6 +944,7 @@
       <c r="D27" t="n">
         <v>21</v>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -938,6 +965,7 @@
       <c r="D28" t="n">
         <v>22</v>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -958,6 +986,7 @@
       <c r="D29" t="n">
         <v>22</v>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -978,6 +1007,7 @@
       <c r="D30" t="n">
         <v>24</v>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -998,6 +1028,7 @@
       <c r="D31" t="n">
         <v>24</v>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1018,6 +1049,7 @@
       <c r="D32" t="n">
         <v>24</v>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1038,6 +1070,7 @@
       <c r="D33" t="n">
         <v>25</v>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1058,56 +1091,63 @@
       <c r="D34" t="n">
         <v>26</v>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>12:38:18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LP1912</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1118,6 +1158,7 @@
       <c r="D37" t="n">
         <v>28</v>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1138,6 +1179,7 @@
       <c r="D38" t="n">
         <v>28</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1158,46 +1200,49 @@
       <c r="D39" t="n">
         <v>28</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>29</v>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1218,26 +1263,28 @@
       <c r="D42" t="n">
         <v>29</v>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1258,26 +1305,28 @@
       <c r="D44" t="n">
         <v>31</v>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1298,36 +1347,38 @@
       <c r="D46" t="n">
         <v>34</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1336,18 +1387,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1358,16 +1410,17 @@
       <c r="D49" t="n">
         <v>37</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1376,98 +1429,103 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1478,86 +1536,91 @@
       <c r="D55" t="n">
         <v>42</v>
       </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>43</v>
       </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1578,26 +1641,28 @@
       <c r="D60" t="n">
         <v>45</v>
       </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1683,7 @@
       <c r="D62" t="n">
         <v>46</v>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1638,46 +1704,49 @@
       <c r="D63" t="n">
         <v>46</v>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1698,6 +1767,7 @@
       <c r="D66" t="n">
         <v>48</v>
       </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1718,46 +1788,49 @@
       <c r="D67" t="n">
         <v>48</v>
       </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1778,6 +1851,7 @@
       <c r="D70" t="n">
         <v>52</v>
       </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1798,26 +1872,28 @@
       <c r="D71" t="n">
         <v>52</v>
       </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1832,12 +1908,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>53</v>
       </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1858,146 +1935,154 @@
       <c r="D74" t="n">
         <v>53</v>
       </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>58</v>
       </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2018,6 +2103,7 @@
       <c r="D82" t="n">
         <v>60</v>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2038,26 +2124,28 @@
       <c r="D83" t="n">
         <v>60</v>
       </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2072,52 +2160,55 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>61</v>
       </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>62</v>
       </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2127,37 +2218,39 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2178,26 +2271,28 @@
       <c r="D90" t="n">
         <v>64</v>
       </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2218,66 +2313,70 @@
       <c r="D92" t="n">
         <v>65</v>
       </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>65</v>
       </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>67</v>
       </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2298,26 +2397,28 @@
       <c r="D96" t="n">
         <v>67</v>
       </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2338,6 +2439,7 @@
       <c r="D98" t="n">
         <v>68</v>
       </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2358,6 +2460,7 @@
       <c r="D99" t="n">
         <v>68</v>
       </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2378,26 +2481,28 @@
       <c r="D100" t="n">
         <v>68</v>
       </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>68</v>
       </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2418,26 +2523,28 @@
       <c r="D102" t="n">
         <v>68</v>
       </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2458,66 +2565,70 @@
       <c r="D104" t="n">
         <v>69</v>
       </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>69</v>
       </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2538,56 +2649,59 @@
       <c r="D108" t="n">
         <v>71</v>
       </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>71</v>
       </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2596,18 +2710,19 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2616,58 +2731,61 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>74</v>
       </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2678,6 +2796,7 @@
       <c r="D115" t="n">
         <v>76</v>
       </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2698,26 +2817,28 @@
       <c r="D116" t="n">
         <v>76</v>
       </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>77</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2738,6 +2859,7 @@
       <c r="D118" t="n">
         <v>77</v>
       </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2758,6 +2880,7 @@
       <c r="D119" t="n">
         <v>77</v>
       </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2778,66 +2901,70 @@
       <c r="D120" t="n">
         <v>77</v>
       </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2847,37 +2974,39 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2898,26 +3027,28 @@
       <c r="D126" t="n">
         <v>83</v>
       </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2938,26 +3069,28 @@
       <c r="D128" t="n">
         <v>84</v>
       </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>84</v>
       </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2978,26 +3111,28 @@
       <c r="D130" t="n">
         <v>84</v>
       </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3018,86 +3153,91 @@
       <c r="D132" t="n">
         <v>85</v>
       </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>86</v>
       </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3112,52 +3252,55 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v>88</v>
       </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>89</v>
       </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3178,26 +3321,28 @@
       <c r="D140" t="n">
         <v>89</v>
       </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3218,6 +3363,7 @@
       <c r="D142" t="n">
         <v>90</v>
       </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3238,6 +3384,7 @@
       <c r="D143" t="n">
         <v>90</v>
       </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3258,26 +3405,28 @@
       <c r="D144" t="n">
         <v>90</v>
       </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3298,6 +3447,7 @@
       <c r="D146" t="n">
         <v>91</v>
       </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3318,6 +3468,7 @@
       <c r="D147" t="n">
         <v>91</v>
       </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3338,66 +3489,70 @@
       <c r="D148" t="n">
         <v>91</v>
       </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>91</v>
       </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>92</v>
       </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3418,26 +3573,28 @@
       <c r="D152" t="n">
         <v>92</v>
       </c>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3458,6 +3615,7 @@
       <c r="D154" t="n">
         <v>93</v>
       </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3478,6 +3636,7 @@
       <c r="D155" t="n">
         <v>93</v>
       </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3498,306 +3657,322 @@
       <c r="D156" t="n">
         <v>93</v>
       </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>93</v>
       </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>94</v>
       </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>95</v>
       </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>96</v>
       </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>97</v>
       </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>99</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>100</v>
       </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>101</v>
       </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3818,26 +3993,28 @@
       <c r="D172" t="n">
         <v>101</v>
       </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>101</v>
       </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3858,6 +4035,7 @@
       <c r="D174" t="n">
         <v>101</v>
       </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3878,6 +4056,7 @@
       <c r="D175" t="n">
         <v>101</v>
       </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3898,26 +4077,28 @@
       <c r="D176" t="n">
         <v>101</v>
       </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3938,6 +4119,7 @@
       <c r="D178" t="n">
         <v>102</v>
       </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3958,126 +4140,137 @@
       <c r="D179" t="n">
         <v>102</v>
       </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>103</v>
       </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>12:38:18</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>LP1912</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>104</v>
       </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>104</v>
       </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4098,66 +4291,70 @@
       <c r="D186" t="n">
         <v>104</v>
       </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>105</v>
       </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4178,6 +4375,7 @@
       <c r="D190" t="n">
         <v>105</v>
       </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4198,46 +4396,49 @@
       <c r="D191" t="n">
         <v>105</v>
       </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4258,6 +4459,7 @@
       <c r="D194" t="n">
         <v>106</v>
       </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4278,126 +4480,133 @@
       <c r="D195" t="n">
         <v>106</v>
       </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>106</v>
       </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D199" t="n">
         <v>107</v>
       </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4418,6 +4627,7 @@
       <c r="D202" t="n">
         <v>108</v>
       </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4438,206 +4648,217 @@
       <c r="D203" t="n">
         <v>108</v>
       </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D204" t="n">
         <v>108</v>
       </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4658,6 +4879,7 @@
       <c r="D214" t="n">
         <v>113</v>
       </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4678,6 +4900,7 @@
       <c r="D215" t="n">
         <v>113</v>
       </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4698,6 +4921,7 @@
       <c r="D216" t="n">
         <v>113</v>
       </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4718,6 +4942,7 @@
       <c r="D217" t="n">
         <v>113</v>
       </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4738,6 +4963,7 @@
       <c r="D218" t="n">
         <v>113</v>
       </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4758,6 +4984,7 @@
       <c r="D219" t="n">
         <v>113</v>
       </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4778,6 +5005,7 @@
       <c r="D220" t="n">
         <v>113</v>
       </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4798,16 +5026,17 @@
       <c r="D221" t="n">
         <v>113</v>
       </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4816,228 +5045,240 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>114</v>
       </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>114</v>
       </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D228" t="n">
         <v>115</v>
       </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D229" t="n">
         <v>115</v>
       </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D230" t="n">
         <v>115</v>
       </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>07:33</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D233" t="n">
         <v>116</v>
       </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5058,6 +5299,7 @@
       <c r="D234" t="n">
         <v>116</v>
       </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5078,6 +5320,7 @@
       <c r="D235" t="n">
         <v>116</v>
       </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5098,166 +5341,217 @@
       <c r="D236" t="n">
         <v>116</v>
       </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D237" t="n">
         <v>116</v>
       </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D238" t="n">
         <v>116</v>
       </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>06:54</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>02:47:42</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>06:27</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>02:47:42</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>04:45</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D243" t="n">
         <v>118</v>
       </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>08:22:12</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>11_ETCHEVERRY</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>118</v>
+      </c>
+      <c r="E244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>06:28:32</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>08:26</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>15X38_ABASTO</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>118</v>
+      </c>
+      <c r="E245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
           <t>06:45:29</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>10_OLMOS</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D246" t="n">
         <v>119</v>
       </c>
+      <c r="E246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5270,7 +5564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5288,14 +5582,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 12:29:24</t>
+          <t>Última actualización: 12:38:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 64</t>
+          <t>Total filas: 65</t>
         </is>
       </c>
     </row>
@@ -5320,6 +5614,11 @@
           <t>Minutos</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Parada</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5340,6 +5639,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5360,6 +5660,7 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5380,6 +5681,7 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5400,6 +5702,7 @@
       <c r="D9" t="n">
         <v>3</v>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5420,6 +5723,7 @@
       <c r="D10" t="n">
         <v>3</v>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5440,6 +5744,7 @@
       <c r="D11" t="n">
         <v>26</v>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5460,6 +5765,7 @@
       <c r="D12" t="n">
         <v>29</v>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5480,6 +5786,7 @@
       <c r="D13" t="n">
         <v>31</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5500,6 +5807,7 @@
       <c r="D14" t="n">
         <v>43</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5520,6 +5828,7 @@
       <c r="D15" t="n">
         <v>45</v>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5540,6 +5849,7 @@
       <c r="D16" t="n">
         <v>45</v>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5560,6 +5870,7 @@
       <c r="D17" t="n">
         <v>46</v>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5580,6 +5891,7 @@
       <c r="D18" t="n">
         <v>53</v>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5600,6 +5912,7 @@
       <c r="D19" t="n">
         <v>53</v>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5620,6 +5933,7 @@
       <c r="D20" t="n">
         <v>55</v>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5640,6 +5954,7 @@
       <c r="D21" t="n">
         <v>60</v>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5660,6 +5975,7 @@
       <c r="D22" t="n">
         <v>61</v>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5680,6 +5996,7 @@
       <c r="D23" t="n">
         <v>64</v>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5700,6 +6017,7 @@
       <c r="D24" t="n">
         <v>65</v>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5720,6 +6038,7 @@
       <c r="D25" t="n">
         <v>68</v>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5740,6 +6059,7 @@
       <c r="D26" t="n">
         <v>68</v>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5760,6 +6080,7 @@
       <c r="D27" t="n">
         <v>69</v>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5780,6 +6101,7 @@
       <c r="D28" t="n">
         <v>71</v>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5800,6 +6122,7 @@
       <c r="D29" t="n">
         <v>71</v>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5820,6 +6143,7 @@
       <c r="D30" t="n">
         <v>76</v>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5840,6 +6164,7 @@
       <c r="D31" t="n">
         <v>84</v>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5860,6 +6185,7 @@
       <c r="D32" t="n">
         <v>84</v>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5880,6 +6206,7 @@
       <c r="D33" t="n">
         <v>85</v>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5900,6 +6227,7 @@
       <c r="D34" t="n">
         <v>85</v>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5920,6 +6248,7 @@
       <c r="D35" t="n">
         <v>86</v>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5940,6 +6269,7 @@
       <c r="D36" t="n">
         <v>86</v>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5960,6 +6290,7 @@
       <c r="D37" t="n">
         <v>89</v>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5980,6 +6311,7 @@
       <c r="D38" t="n">
         <v>89</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6000,6 +6332,7 @@
       <c r="D39" t="n">
         <v>90</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6020,6 +6353,7 @@
       <c r="D40" t="n">
         <v>93</v>
       </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6040,6 +6374,7 @@
       <c r="D41" t="n">
         <v>95</v>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6060,6 +6395,7 @@
       <c r="D42" t="n">
         <v>96</v>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6080,6 +6416,7 @@
       <c r="D43" t="n">
         <v>98</v>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6100,6 +6437,7 @@
       <c r="D44" t="n">
         <v>101</v>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6120,6 +6458,7 @@
       <c r="D45" t="n">
         <v>101</v>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6140,6 +6479,7 @@
       <c r="D46" t="n">
         <v>102</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6160,6 +6500,7 @@
       <c r="D47" t="n">
         <v>102</v>
       </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6180,6 +6521,7 @@
       <c r="D48" t="n">
         <v>103</v>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6200,46 +6542,53 @@
       <c r="D49" t="n">
         <v>103</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>12:38:18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LP1912</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6260,26 +6609,28 @@
       <c r="D52" t="n">
         <v>105</v>
       </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6300,26 +6651,28 @@
       <c r="D54" t="n">
         <v>107</v>
       </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6340,106 +6693,112 @@
       <c r="D56" t="n">
         <v>108</v>
       </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>110</v>
       </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6460,6 +6819,7 @@
       <c r="D62" t="n">
         <v>113</v>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6480,76 +6840,80 @@
       <c r="D63" t="n">
         <v>113</v>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>114</v>
       </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6560,46 +6924,70 @@
       <c r="D67" t="n">
         <v>115</v>
       </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>07:31:04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>215_EL PELIGRO</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>116</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>02:47:42</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>04:45</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>215A_EL PATO</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D70" t="n">
         <v>118</v>
       </c>
+      <c r="E70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6612,7 +7000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,14 +7018,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Última actualización: 12:29:24</t>
+          <t>Última actualización: 12:38:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total filas: 239</t>
+          <t>Total filas: 241</t>
         </is>
       </c>
     </row>
@@ -6662,6 +7050,11 @@
           <t>Minutos</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Parada</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6682,6 +7075,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6702,6 +7096,7 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6722,6 +7117,7 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6742,6 +7138,7 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6762,6 +7159,7 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6782,6 +7180,7 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6802,6 +7201,7 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6822,6 +7222,7 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6842,6 +7243,7 @@
       <c r="D14" t="n">
         <v>3</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6862,6 +7264,7 @@
       <c r="D15" t="n">
         <v>3</v>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6882,6 +7285,7 @@
       <c r="D16" t="n">
         <v>4</v>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6902,6 +7306,7 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6922,6 +7327,7 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6942,6 +7348,7 @@
       <c r="D19" t="n">
         <v>4</v>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6962,6 +7369,7 @@
       <c r="D20" t="n">
         <v>7</v>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6982,6 +7390,7 @@
       <c r="D21" t="n">
         <v>7</v>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7002,6 +7411,7 @@
       <c r="D22" t="n">
         <v>11</v>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7022,6 +7432,7 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7042,6 +7453,7 @@
       <c r="D24" t="n">
         <v>19</v>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7062,6 +7474,7 @@
       <c r="D25" t="n">
         <v>19</v>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7082,6 +7495,7 @@
       <c r="D26" t="n">
         <v>20</v>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7102,6 +7516,7 @@
       <c r="D27" t="n">
         <v>21</v>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7122,6 +7537,7 @@
       <c r="D28" t="n">
         <v>22</v>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7142,6 +7558,7 @@
       <c r="D29" t="n">
         <v>22</v>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7162,6 +7579,7 @@
       <c r="D30" t="n">
         <v>24</v>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7182,6 +7600,7 @@
       <c r="D31" t="n">
         <v>24</v>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7202,6 +7621,7 @@
       <c r="D32" t="n">
         <v>24</v>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7222,6 +7642,7 @@
       <c r="D33" t="n">
         <v>25</v>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7242,56 +7663,63 @@
       <c r="D34" t="n">
         <v>26</v>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>12:38:18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LP1912</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7302,6 +7730,7 @@
       <c r="D37" t="n">
         <v>28</v>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7322,6 +7751,7 @@
       <c r="D38" t="n">
         <v>28</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7342,46 +7772,49 @@
       <c r="D39" t="n">
         <v>28</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>09:26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>29</v>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7402,26 +7835,28 @@
       <c r="D42" t="n">
         <v>29</v>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7442,26 +7877,28 @@
       <c r="D44" t="n">
         <v>31</v>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7482,36 +7919,38 @@
       <c r="D46" t="n">
         <v>34</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7520,18 +7959,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7542,16 +7982,17 @@
       <c r="D49" t="n">
         <v>37</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>05:21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7560,98 +8001,103 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7662,86 +8108,91 @@
       <c r="D55" t="n">
         <v>42</v>
       </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>43</v>
       </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7762,26 +8213,28 @@
       <c r="D60" t="n">
         <v>45</v>
       </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215_EL PELIGRO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7802,6 +8255,7 @@
       <c r="D62" t="n">
         <v>46</v>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7822,46 +8276,49 @@
       <c r="D63" t="n">
         <v>46</v>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05:31</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>215_EL PELIGRO</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7882,6 +8339,7 @@
       <c r="D66" t="n">
         <v>48</v>
       </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7902,46 +8360,49 @@
       <c r="D67" t="n">
         <v>48</v>
       </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7962,6 +8423,7 @@
       <c r="D70" t="n">
         <v>52</v>
       </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7982,26 +8444,28 @@
       <c r="D71" t="n">
         <v>52</v>
       </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8016,12 +8480,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>53</v>
       </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8042,146 +8507,154 @@
       <c r="D74" t="n">
         <v>53</v>
       </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06:50</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>06:53</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>58</v>
       </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8202,6 +8675,7 @@
       <c r="D82" t="n">
         <v>60</v>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8222,26 +8696,28 @@
       <c r="D83" t="n">
         <v>60</v>
       </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>04:46</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8256,52 +8732,55 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>61</v>
       </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>62</v>
       </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8311,37 +8790,39 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8362,26 +8843,28 @@
       <c r="D90" t="n">
         <v>64</v>
       </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8402,66 +8885,70 @@
       <c r="D92" t="n">
         <v>65</v>
       </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>65</v>
       </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01:55:38</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>67</v>
       </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8482,26 +8969,28 @@
       <c r="D96" t="n">
         <v>67</v>
       </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>01:55:38</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>07:36</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8522,6 +9011,7 @@
       <c r="D98" t="n">
         <v>68</v>
       </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8542,6 +9032,7 @@
       <c r="D99" t="n">
         <v>68</v>
       </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8562,26 +9053,28 @@
       <c r="D100" t="n">
         <v>68</v>
       </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>68</v>
       </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8602,26 +9095,28 @@
       <c r="D102" t="n">
         <v>68</v>
       </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8642,66 +9137,70 @@
       <c r="D104" t="n">
         <v>69</v>
       </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>69</v>
       </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8722,56 +9221,59 @@
       <c r="D108" t="n">
         <v>71</v>
       </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>71</v>
       </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>00:46:06</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>05:12</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>00:46:06</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -8780,18 +9282,19 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -8800,58 +9303,61 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>74</v>
       </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -8862,6 +9368,7 @@
       <c r="D115" t="n">
         <v>76</v>
       </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8882,26 +9389,28 @@
       <c r="D116" t="n">
         <v>76</v>
       </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>77</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8922,6 +9431,7 @@
       <c r="D118" t="n">
         <v>77</v>
       </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8942,6 +9452,7 @@
       <c r="D119" t="n">
         <v>77</v>
       </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8962,66 +9473,70 @@
       <c r="D120" t="n">
         <v>77</v>
       </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9031,37 +9546,39 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9082,26 +9599,28 @@
       <c r="D126" t="n">
         <v>83</v>
       </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9122,26 +9641,28 @@
       <c r="D128" t="n">
         <v>84</v>
       </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>84</v>
       </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9162,26 +9683,28 @@
       <c r="D130" t="n">
         <v>84</v>
       </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9202,86 +9725,91 @@
       <c r="D132" t="n">
         <v>85</v>
       </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>86</v>
       </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>225_GOMEZ</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9296,52 +9824,55 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v>88</v>
       </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>89</v>
       </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9362,26 +9893,28 @@
       <c r="D140" t="n">
         <v>89</v>
       </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9402,6 +9935,7 @@
       <c r="D142" t="n">
         <v>90</v>
       </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9422,6 +9956,7 @@
       <c r="D143" t="n">
         <v>90</v>
       </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9442,26 +9977,28 @@
       <c r="D144" t="n">
         <v>90</v>
       </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9482,6 +10019,7 @@
       <c r="D146" t="n">
         <v>91</v>
       </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9502,6 +10040,7 @@
       <c r="D147" t="n">
         <v>91</v>
       </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9522,66 +10061,70 @@
       <c r="D148" t="n">
         <v>91</v>
       </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16_SANTA ANA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>91</v>
       </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>16_SANTA ANA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>04:01</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>81_EL PELIGRO</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>92</v>
       </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9602,26 +10145,28 @@
       <c r="D152" t="n">
         <v>92</v>
       </c>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>04:01</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>81_EL PELIGRO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9642,6 +10187,7 @@
       <c r="D154" t="n">
         <v>93</v>
       </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9662,6 +10208,7 @@
       <c r="D155" t="n">
         <v>93</v>
       </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9682,306 +10229,322 @@
       <c r="D156" t="n">
         <v>93</v>
       </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>93</v>
       </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>08:57:53</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>94</v>
       </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>06:04</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>95</v>
       </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>01:22:42</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>02:58</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>01:22:42</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>02:58</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>96</v>
       </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>05:22</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>14X44_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>97</v>
       </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>14X44_ABASTO</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>99</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>06:23</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>100</v>
       </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>04:58:02</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>101</v>
       </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10002,26 +10565,28 @@
       <c r="D172" t="n">
         <v>101</v>
       </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>04:58:02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>101</v>
       </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10042,6 +10607,7 @@
       <c r="D174" t="n">
         <v>101</v>
       </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10062,6 +10628,7 @@
       <c r="D175" t="n">
         <v>101</v>
       </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10082,26 +10649,28 @@
       <c r="D176" t="n">
         <v>101</v>
       </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10122,6 +10691,7 @@
       <c r="D178" t="n">
         <v>102</v>
       </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10142,126 +10712,137 @@
       <c r="D179" t="n">
         <v>102</v>
       </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>103</v>
       </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>12:38:18</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>LP1912</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>104</v>
       </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>104</v>
       </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10282,66 +10863,70 @@
       <c r="D186" t="n">
         <v>104</v>
       </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>215_ALUAR</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>105</v>
       </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10362,6 +10947,7 @@
       <c r="D190" t="n">
         <v>105</v>
       </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10382,46 +10968,49 @@
       <c r="D191" t="n">
         <v>105</v>
       </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>16_P MOR-SANTA ANA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>07:31:04</t>
+          <t>11:25:38</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>215_ALUAR</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10442,6 +11031,7 @@
       <c r="D194" t="n">
         <v>106</v>
       </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10462,126 +11052,133 @@
       <c r="D195" t="n">
         <v>106</v>
       </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>16_P MOR-SANTA ANA</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>106</v>
       </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>09:57:03</t>
+          <t>07:31:04</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>09:57:03</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D199" t="n">
         <v>107</v>
       </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>05:55:51</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>27_EL RETIRO</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10602,6 +11199,7 @@
       <c r="D202" t="n">
         <v>108</v>
       </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10622,206 +11220,217 @@
       <c r="D203" t="n">
         <v>108</v>
       </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>05:55:51</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>09:39</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D204" t="n">
         <v>108</v>
       </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10:51:31</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15X38_ABASTO</t>
+          <t>27_EL RETIRO</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>03:46:12</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>215B_EL PATO</t>
+          <t>15_ABASTO</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>10:51:31</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>15X38_ABASTO</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>08:41:14</t>
+          <t>03:46:12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>215B_LP-P MOR-1 Y 57</t>
+          <t>215B_EL PATO</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>110</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>04:01:06</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>08:41:14</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>215A_EL PATO</t>
+          <t>215B_LP-P MOR-1 Y 57</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>08:22:12</t>
+          <t>04:01:06</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>10_OLMOS</t>
+          <t>17_ROMERO</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>215C_EL PATO</t>
+          <t>215A_EL PATO</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>07:51:22</t>
+          <t>08:22:12</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>14_ABASTO</t>
+          <t>10_OLMOS</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10842,6 +11451,7 @@
       <c r="D214" t="n">
         <v>113</v>
       </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10862,6 +11472,7 @@
       <c r="D215" t="n">
         <v>113</v>
       </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10882,6 +11493,7 @@
       <c r="D216" t="n">
         <v>113</v>
       </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -10902,6 +11514,7 @@
       <c r="D217" t="n">
         <v>113</v>
       </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10922,6 +11535,7 @@
       <c r="D218" t="n">
         <v>113</v>
       </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10942,6 +11556,7 @@
       <c r="D219" t="n">
         <v>113</v>
       </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10962,6 +11577,7 @@
       <c r="D220" t="n">
         <v>113</v>
       </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10982,16 +11598,17 @@
       <c r="D221" t="n">
         <v>113</v>
       </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>06:45:29</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11000,228 +11617,240 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>04:30:03</t>
+          <t>07:51:22</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>06:24</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>14_ABASTO</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>06:58:06</t>
+          <t>06:45:29</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>215A_LA PLATA</t>
+          <t>215C_EL PATO</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>114</v>
       </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>04:44:55</t>
+          <t>04:30:03</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>06:24</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>225_C ROCA-H SUR</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>114</v>
       </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>06:28:32</t>
+          <t>06:58:06</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>215A_LA PLATA</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>04:44:55</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>215C_LA PLATA</t>
+          <t>225_C ROCA-H SUR</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10:35:49</t>
+          <t>06:28:32</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D228" t="n">
         <v>115</v>
       </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>11:45:06</t>
+          <t>11:58:34</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>17X38_ROMERO</t>
+          <t>215C_LA PLATA</t>
         </is>
       </c>
       <c r="D229" t="n">
         <v>115</v>
       </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>12:29:23</t>
+          <t>11:45:06</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>11_ETCHEVERRY</t>
+          <t>17X38_ROMERO</t>
         </is>
       </c>
       <c r="D230" t="n">
         <v>115</v>
       </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>11:25:38</t>
+          <t>10:35:49</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>17_ROMERO</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>05:37:13</t>
+          <t>12:29:23</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>23_HERNANDEZ</t>
+          <t>11_ETCHEVERRY</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>11:58:34</t>
+          <t>05:37:13</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>07:33</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>225_GOMEZ</t>
+          <t>23_HERNANDEZ</t>
         </is>
       </c>
       <c r="D233" t="n">
         <v>116</v>
       </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -11242,6 +11871,7 @@
       <c r="